--- a/biology/Zoologie/Hespérie_du_barbon/Hespérie_du_barbon.xlsx
+++ b/biology/Zoologie/Hespérie_du_barbon/Hespérie_du_barbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_barbon</t>
+          <t>Hespérie_du_barbon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gegenes pumilio
 L’Hespérie du barbon (Gegenes pumilio) est une espèce de lépidoptères (papillons) de la famille des Hesperiidae, de la sous-famille des Hesperiinae et du genre Gegenes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_barbon</t>
+          <t>Hespérie_du_barbon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gegenes pumilio a été nommé par Hoffmannsegg en 1804[1].
-Synonymes : Hesperia aetna Boisduval, 1840; Papilio pygmaeus Cyrillo, 1787; Philoodus lefebvrei Rambur, 1840[2].
-Noms vernaculaires
-L'Hespérie du barbon se nomme Pigmy Skipper ou Dark Hottentot en anglais, Μεσογειακή εσπερίδα en grec, Cüce Zıpzıp en turc[1],[3].
-Sous-espèces
-Gegenes pumilio pumilio
-Gegenes pumilio gambica (Mabille, 1878)
-Gegenes pumilio monochroa (Rebel, 1907)</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gegenes pumilio a été nommé par Hoffmannsegg en 1804.
+Synonymes : Hesperia aetna Boisduval, 1840; Papilio pygmaeus Cyrillo, 1787; Philoodus lefebvrei Rambur, 1840.
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_barbon</t>
+          <t>Hespérie_du_barbon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon d'une envergure de 26 mm à 28 mm au dessus marron foncé et au revers beige grisé. Comme tous les Hesperiidae il porte ses ailes antérieures partiellement redressées quand il est posé[4],[5].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du barbon se nomme Pigmy Skipper ou Dark Hottentot en anglais, Μεσογειακή εσπερίδα en grec, Cüce Zıpzıp en turc,.
 </t>
         </is>
       </c>
@@ -562,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_barbon</t>
+          <t>Hespérie_du_barbon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,16 +592,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie du barbon vole en deux à trois génération d'avril à octobre[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Poaceae (graminées) : Ehrharta erecta en Afrique, indéterminées en Europe, peut-être l'Herbe barbue Hyparrhenia hirta, graminée de rocailles sèches et bords de chemins du Var et des Alpes-Maritimes[1],[4].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gegenes pumilio pumilio
+Gegenes pumilio gambica (Mabille, 1878)
+Gegenes pumilio monochroa (Rebel, 1907)</t>
         </is>
       </c>
     </row>
@@ -596,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_du_barbon</t>
+          <t>Hespérie_du_barbon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,18 +630,197 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon d'une envergure de 26 mm à 28 mm au dessus marron foncé et au revers beige grisé. Comme tous les Hesperiidae il porte ses ailes antérieures partiellement redressées quand il est posé,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_du_barbon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_barbon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du barbon vole en deux à trois génération d'avril à octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_du_barbon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_barbon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Poaceae (graminées) : Ehrharta erecta en Afrique, indéterminées en Europe, peut-être l'Herbe barbue Hyparrhenia hirta, graminée de rocailles sèches et bords de chemins du Var et des Alpes-Maritimes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_du_barbon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_barbon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie du barbon réside dans toute l'Afrique (et à Madagascar), en Europe et au Moyen-Orient sur la côte méditerranéenne, en Asie dans l'Himalaya et dans le nord de l'Inde[1],[4].
-En Europe l'Hespérie du barbon se rencontre sur la côte méditerranéenne dans le sud de l'Espagne, à Majorque, en Sardaigne, en Sicile, à l'île d'Elbe, sur la côte ouest de l'Italie, à Malte, dans le sud de la Croatie et de la Serbie, en Albanie, régions côtières  de la Grèce et en Crète[4].
-En France métropolitaine elle n'est présente que dans le Var et les Alpes-Maritimes[6].
-Biotope
-L'Hespérie du barbon réside dans les milieux rocheux chauds et secs du littoral méditerranéen, en bordure de rivières et zones de suintement très ensoleillées[4].
-Protection
-En France il est classé sur la liste rouge des espèces menacées[7]. La dernière observation y date de 1997 et la plupart des biotopes connus entre Nice et Menton ont disparu à cause de l'urbanisation. Dans les Maures, ce sont les incendies qui ont détruit les stations. Il est possible que l'Hespérie du barbon ne soit plus présente en France.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du barbon réside dans toute l'Afrique (et à Madagascar), en Europe et au Moyen-Orient sur la côte méditerranéenne, en Asie dans l'Himalaya et dans le nord de l'Inde,.
+En Europe l'Hespérie du barbon se rencontre sur la côte méditerranéenne dans le sud de l'Espagne, à Majorque, en Sardaigne, en Sicile, à l'île d'Elbe, sur la côte ouest de l'Italie, à Malte, dans le sud de la Croatie et de la Serbie, en Albanie, régions côtières  de la Grèce et en Crète.
+En France métropolitaine elle n'est présente que dans le Var et les Alpes-Maritimes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_du_barbon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_barbon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie du barbon réside dans les milieux rocheux chauds et secs du littoral méditerranéen, en bordure de rivières et zones de suintement très ensoleillées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hespérie_du_barbon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_du_barbon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France il est classé sur la liste rouge des espèces menacées. La dernière observation y date de 1997 et la plupart des biotopes connus entre Nice et Menton ont disparu à cause de l'urbanisation. Dans les Maures, ce sont les incendies qui ont détruit les stations. Il est possible que l'Hespérie du barbon ne soit plus présente en France.
 </t>
         </is>
       </c>
